--- a/data/trans_camb/P16A17-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A17-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16A17-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A17-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,25</t>
         </is>
       </c>
     </row>
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,99; 0,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,19; 0,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,99; 0,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,19; 0,67</t>
         </is>
       </c>
     </row>
@@ -758,12 +758,12 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,85%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,78%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,85%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,78%</t>
         </is>
       </c>
     </row>
@@ -863,32 +863,32 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,18</t>
         </is>
       </c>
     </row>
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,09; 1,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,86; 1,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,17; 0,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,09; 1,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,86; 1,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,17; 0,54</t>
         </is>
       </c>
     </row>
@@ -969,32 +969,32 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,36%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,06%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,43%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,36%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,06%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,43%</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
     </row>
@@ -1079,32 +1079,32 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,21</t>
         </is>
       </c>
     </row>
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,3; 1,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,04; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,74; 0,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,3; 1,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,04; 0,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,74; 0,94</t>
         </is>
       </c>
     </row>
@@ -1185,32 +1185,32 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>208,93%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,8%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>208,93%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,8%</t>
         </is>
       </c>
     </row>
@@ -1295,32 +1295,32 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,8</t>
         </is>
       </c>
     </row>
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,56; 0,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,32; -0,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,06; 0,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,56; 0,65</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,32; -0,25</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,06; 0,0</t>
         </is>
       </c>
     </row>
@@ -1401,32 +1401,32 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,8%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-83,62%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,8%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-83,62%</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,35; 253,04</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,35; 253,04</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1511,32 +1511,32 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,12</t>
         </is>
       </c>
     </row>
@@ -1564,32 +1564,32 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,49; 0,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,68; 3,06</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,28; 0,57</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,49; 0,0</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,68; 3,06</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,28; 0,57</t>
         </is>
       </c>
     </row>
@@ -1617,32 +1617,32 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>240,68%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,02%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>240,68%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,02%</t>
         </is>
       </c>
     </row>
@@ -1727,32 +1727,32 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,24</t>
         </is>
       </c>
     </row>
@@ -1780,32 +1780,32 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,87; 0,68</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,56; -0,37</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,23; -0,07</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,87; 0,68</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,56; -0,37</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,23; -0,07</t>
         </is>
       </c>
     </row>
@@ -1833,32 +1833,32 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,63%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-83,76%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,63%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-83,76%</t>
         </is>
       </c>
     </row>
@@ -1943,32 +1943,32 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,18</t>
         </is>
       </c>
     </row>
@@ -1996,32 +1996,32 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,08; 0,85</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,89; 1,11</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,1; 0,54</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,08; 0,85</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,89; 1,11</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,1; 0,54</t>
         </is>
       </c>
     </row>
@@ -2049,32 +2049,32 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,7%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,01%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,69%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,7%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,01%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,69%</t>
         </is>
       </c>
     </row>
@@ -2102,32 +2102,32 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 288,68</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,67; 365,45</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,11; 203,38</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 288,68</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,67; 365,45</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,11; 203,38</t>
         </is>
       </c>
     </row>
@@ -2159,32 +2159,32 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,05</t>
         </is>
       </c>
     </row>
@@ -2212,32 +2212,32 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,8; 0,79</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,95; 0,51</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,87; 0,58</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,8; 0,79</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,95; 0,51</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,87; 0,58</t>
         </is>
       </c>
     </row>
@@ -2265,32 +2265,32 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,78%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,39%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,8%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,78%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,39%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,8%</t>
         </is>
       </c>
     </row>
@@ -2318,7 +2318,7 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,98; 443,9</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,98; 443,9</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -2375,32 +2375,32 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,27</t>
         </is>
       </c>
     </row>
@@ -2428,32 +2428,32 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 0,3</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,61; 0,16</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,65; 0,02</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 0,3</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,61; 0,16</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,65; 0,02</t>
         </is>
       </c>
     </row>
@@ -2481,32 +2481,32 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,99%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,45%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,31%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,99%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,45%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,31%</t>
         </is>
       </c>
     </row>
@@ -2534,32 +2534,32 @@
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,96; 68,14</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,32; 35,9</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,56; 12,14</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,96; 68,14</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,32; 35,9</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,56; 12,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A17-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A17-Provincia-trans_camb.xlsx
@@ -647,7 +647,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-0,26</t>
         </is>
       </c>
     </row>
@@ -700,7 +700,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,57; 0,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 0,67</t>
+          <t>-2,2; 0,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,57; 0,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 0,67</t>
+          <t>-2,2; 0,64</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,22%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-31,78%</t>
+          <t>-33,58%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-31,78%</t>
+          <t>-33,58%</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-0,17</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 0,54</t>
+          <t>-1,18; 0,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 0,54</t>
+          <t>-1,18; 0,54</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-28,43%</t>
+          <t>-27,89%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-28,43%</t>
+          <t>-27,89%</t>
         </is>
       </c>
     </row>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 0,94</t>
+          <t>-0,74; 0,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 0,94</t>
+          <t>-0,74; 0,96</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>68,8%</t>
+          <t>69,39%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>68,8%</t>
+          <t>69,39%</t>
         </is>
       </c>
     </row>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>-0,83</t>
         </is>
       </c>
     </row>
@@ -1348,7 +1348,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 0,65</t>
+          <t>-1,44; 1,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 0,0</t>
+          <t>-2,12; -0,02</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 0,65</t>
+          <t>-1,44; 1,23</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 0,0</t>
+          <t>-2,12; -0,02</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-32,8%</t>
+          <t>-14,64%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-83,62%</t>
+          <t>-86,23%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-32,8%</t>
+          <t>-14,64%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-83,62%</t>
+          <t>-86,23%</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-92,35; 253,04</t>
+          <t>-100,0; 505,79</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-92,35; 253,04</t>
+          <t>-100,0; 505,79</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-25,02%</t>
+          <t>-24,34%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-25,02%</t>
+          <t>-24,34%</t>
         </is>
       </c>
     </row>
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-83,76%</t>
+          <t>-83,8%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-83,76%</t>
+          <t>-83,8%</t>
         </is>
       </c>
     </row>
@@ -1953,14 +1953,14 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
+          <t>-0,27</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
           <t>-0,18</t>
         </is>
       </c>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>-0,18</t>
-        </is>
-      </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
           <t>0,09</t>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-0,27</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 0,54</t>
+          <t>-1,18; 0,41</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 0,54</t>
+          <t>-1,18; 0,41</t>
         </is>
       </c>
     </row>
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-23,69%</t>
+          <t>-35,19%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-23,69%</t>
+          <t>-35,19%</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-84,11; 203,38</t>
+          <t>-87,92; 161,73</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-84,11; 203,38</t>
+          <t>-87,92; 161,73</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>-0,04</t>
         </is>
       </c>
     </row>
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 0,58</t>
+          <t>-0,86; 0,6</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 0,58</t>
+          <t>-0,86; 0,6</t>
         </is>
       </c>
     </row>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-9,8%</t>
+          <t>-7,66%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>-9,8%</t>
+          <t>-7,66%</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-0,29</t>
         </is>
       </c>
     </row>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 0,02</t>
+          <t>-0,67; -0,0</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 0,02</t>
+          <t>-0,67; -0,0</t>
         </is>
       </c>
     </row>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>-37,31%</t>
+          <t>-40,73%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>-37,31%</t>
+          <t>-40,73%</t>
         </is>
       </c>
     </row>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-63,56; 12,14</t>
+          <t>-66,64; 4,1</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-63,56; 12,14</t>
+          <t>-66,64; 4,1</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A17-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A17-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 0,83</t>
+          <t>-1,59; 0,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 0,66</t>
+          <t>-2,3; 0,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 0,64</t>
+          <t>-1,91; 0,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 0,83</t>
+          <t>-1,59; 0,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 0,66</t>
+          <t>-2,3; 0,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 0,64</t>
+          <t>-1,91; 0,68</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 1,12</t>
+          <t>-1,02; 1,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 1,22</t>
+          <t>-0,85; 1,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 0,54</t>
+          <t>-1,22; 0,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 1,12</t>
+          <t>-1,02; 1,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 1,22</t>
+          <t>-0,85; 1,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 0,54</t>
+          <t>-1,22; 0,57</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 1,9</t>
+          <t>-0,3; 1,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 0,0</t>
+          <t>-1,45; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 0,96</t>
+          <t>-0,72; 0,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 1,9</t>
+          <t>-0,3; 1,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 0,0</t>
+          <t>-1,45; 0,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 0,96</t>
+          <t>-0,72; 0,98</t>
         </is>
       </c>
     </row>
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 1,23</t>
+          <t>-1,39; 1,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,32; -0,25</t>
+          <t>-2,2; -0,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,12; -0,02</t>
+          <t>-2,2; -0,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 1,23</t>
+          <t>-1,39; 1,22</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,32; -0,25</t>
+          <t>-2,2; -0,25</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,12; -0,02</t>
+          <t>-2,2; -0,12</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 505,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 505,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1564,32 +1564,32 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 0,0</t>
+          <t>-2,74; 0,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 3,06</t>
+          <t>-0,59; 3,42</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 0,57</t>
+          <t>-2,25; 0,56</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 0,0</t>
+          <t>-2,74; 0,0</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 3,06</t>
+          <t>-0,59; 3,42</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 0,57</t>
+          <t>-2,25; 0,56</t>
         </is>
       </c>
     </row>
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1780,32 +1780,32 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 0,68</t>
+          <t>-2,79; 0,67</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,56; -0,37</t>
+          <t>-3,41; -0,37</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,23; -0,07</t>
+          <t>-3,35; -0,11</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 0,68</t>
+          <t>-2,79; 0,67</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,56; -0,37</t>
+          <t>-3,41; -0,37</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,23; -0,07</t>
+          <t>-3,35; -0,11</t>
         </is>
       </c>
     </row>
@@ -1918,7 +1918,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1996,32 +1996,32 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 0,85</t>
+          <t>-1,08; 0,83</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 1,11</t>
+          <t>-0,86; 1,21</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 0,41</t>
+          <t>-1,24; 0,44</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 0,85</t>
+          <t>-1,08; 0,83</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 1,11</t>
+          <t>-0,86; 1,21</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 0,41</t>
+          <t>-1,24; 0,44</t>
         </is>
       </c>
     </row>
@@ -2102,32 +2102,32 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 288,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-76,67; 365,45</t>
+          <t>-78,4; 441,82</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-87,92; 161,73</t>
+          <t>-87,19; 163,34</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 288,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-76,67; 365,45</t>
+          <t>-78,4; 441,82</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-87,92; 161,73</t>
+          <t>-87,19; 163,34</t>
         </is>
       </c>
     </row>
@@ -2212,32 +2212,32 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 0,79</t>
+          <t>-0,67; 0,95</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 0,51</t>
+          <t>-0,93; 0,57</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 0,6</t>
+          <t>-0,83; 0,55</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 0,79</t>
+          <t>-0,67; 0,95</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 0,51</t>
+          <t>-0,93; 0,57</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 0,6</t>
+          <t>-0,83; 0,55</t>
         </is>
       </c>
     </row>
@@ -2318,32 +2318,32 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-83,98; 443,9</t>
+          <t>-73,65; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,2; 298,63</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-83,98; 443,9</t>
+          <t>-73,65; —</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,2; 298,63</t>
         </is>
       </c>
     </row>
@@ -2428,32 +2428,32 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 0,3</t>
+          <t>-0,49; 0,33</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 0,16</t>
+          <t>-0,6; 0,13</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-0,67; -0,0</t>
+          <t>-0,66; 0,01</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 0,3</t>
+          <t>-0,49; 0,33</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 0,16</t>
+          <t>-0,6; 0,13</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-0,67; -0,0</t>
+          <t>-0,66; 0,01</t>
         </is>
       </c>
     </row>
@@ -2534,32 +2534,32 @@
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-54,96; 68,14</t>
+          <t>-52,21; 60,55</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-63,32; 35,9</t>
+          <t>-63,95; 26,15</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-66,64; 4,1</t>
+          <t>-68,03; 5,26</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-54,96; 68,14</t>
+          <t>-52,21; 60,55</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-63,32; 35,9</t>
+          <t>-63,95; 26,15</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-66,64; 4,1</t>
+          <t>-68,03; 5,26</t>
         </is>
       </c>
     </row>
